--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1325997.841325749</v>
+        <v>1311069.174523263</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1861185.768789561</v>
+        <v>1861185.768789563</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2357862.325109811</v>
+        <v>2357862.325109812</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>39.01104463634039</v>
       </c>
       <c r="W2" t="n">
-        <v>15.82593128898491</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.621576176024011</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>28.42119448601593</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>122.4523652507634</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.0246247964035</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>170.7967106202361</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>236.7740349560479</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>155.4526127311944</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>99.660750746876</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>255.4304222094556</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>413.3542113413185</v>
       </c>
       <c r="H11" t="n">
-        <v>319.5194584381683</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>135.3553342543429</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.6180294004005</v>
+        <v>164.6180294004009</v>
       </c>
       <c r="T11" t="n">
-        <v>214.5661762382494</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>338.3037552969943</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>136.3009637486068</v>
       </c>
       <c r="H12" t="n">
-        <v>102.1665731007173</v>
+        <v>102.1665731007174</v>
       </c>
       <c r="I12" t="n">
-        <v>53.50170169071295</v>
+        <v>53.50170169071327</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.42807039329288</v>
+        <v>35.42807039329347</v>
       </c>
       <c r="S12" t="n">
-        <v>152.3181986878412</v>
+        <v>152.3181986878414</v>
       </c>
       <c r="T12" t="n">
-        <v>195.9625068175368</v>
+        <v>195.9625068175369</v>
       </c>
       <c r="U12" t="n">
         <v>225.8727930405404</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.1169375972939</v>
+        <v>138.3695905154553</v>
       </c>
       <c r="H13" t="n">
-        <v>154.4561466672648</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>129.1656554187736</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.56442760231814</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.97296450542711</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.51456273351491</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>48.60112920903737</v>
       </c>
       <c r="W14" t="n">
-        <v>251.0974310020606</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664349</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958679</v>
+        <v>45.44580843958666</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183532</v>
+        <v>20.90078060183508</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1767,28 +1767,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>88.86957797204649</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>46.02097823809532</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.6958418817692</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>341.4809964489797</v>
+        <v>319.573740804406</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664349</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958679</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183532</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U19" t="n">
         <v>286.260654658097</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>9.579478589969954</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>264.8835242011452</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>232.9324253427734</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.58515663460526</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7644211441605784</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>46.18719652447322</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>31.13654107019678</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002169</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,10 +3082,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="35">
@@ -3325,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>209.1695767361639</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>191.6534898356757</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>107.5009259672063</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>33.35146980185858</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056514</v>
+        <v>55.65399379500849</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4336,13 +4336,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="W2" t="n">
-        <v>1646.497784948677</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="X2" t="n">
-        <v>1273.032026687597</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y2" t="n">
-        <v>882.8926947117852</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4418,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1624.583944532628</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1238.795691934384</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>827.8097871447767</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>409.8459790429636</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>82.6512590789664</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2123.618989005894</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1750.153230744814</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>184.2708856551155</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.2708856551155</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1275.524362591491</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C8" t="n">
-        <v>1275.524362591491</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D8" t="n">
-        <v>1275.524362591491</v>
+        <v>240.388315801204</v>
       </c>
       <c r="E8" t="n">
-        <v>1275.524362591491</v>
+        <v>240.388315801204</v>
       </c>
       <c r="F8" t="n">
-        <v>864.5384578018839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>446.5746497000707</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655613</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.124202655613</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.6104068172089</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>154.6104068172089</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>154.6104068172089</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>154.6104068172089</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541695</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>154.6104068172089</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X10" t="n">
-        <v>154.6104068172089</v>
+        <v>210.965822962985</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.6104068172089</v>
+        <v>210.965822962985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2095.921297362161</v>
+        <v>1877.636601620433</v>
       </c>
       <c r="C11" t="n">
-        <v>2095.921297362161</v>
+        <v>1508.674084680021</v>
       </c>
       <c r="D11" t="n">
-        <v>1737.65559875541</v>
+        <v>1150.408386073271</v>
       </c>
       <c r="E11" t="n">
-        <v>1351.867346157166</v>
+        <v>892.3978585889724</v>
       </c>
       <c r="F11" t="n">
-        <v>940.8814413675585</v>
+        <v>481.4119537993648</v>
       </c>
       <c r="G11" t="n">
-        <v>523.3519349621863</v>
+        <v>63.88244739399258</v>
       </c>
       <c r="H11" t="n">
-        <v>200.6050072468647</v>
+        <v>63.88244739399258</v>
       </c>
       <c r="I11" t="n">
-        <v>63.88244739399298</v>
+        <v>63.88244739399258</v>
       </c>
       <c r="J11" t="n">
-        <v>215.7775870444402</v>
+        <v>215.7775870444384</v>
       </c>
       <c r="K11" t="n">
-        <v>564.1738308751549</v>
+        <v>564.1738308751508</v>
       </c>
       <c r="L11" t="n">
-        <v>1048.666806192625</v>
+        <v>1048.666806192618</v>
       </c>
       <c r="M11" t="n">
-        <v>1604.365138508514</v>
+        <v>1604.365138508505</v>
       </c>
       <c r="N11" t="n">
-        <v>2154.423253260182</v>
+        <v>2154.423253260169</v>
       </c>
       <c r="O11" t="n">
-        <v>2628.639895377778</v>
+        <v>2628.639895377763</v>
       </c>
       <c r="P11" t="n">
-        <v>2995.698445127843</v>
+        <v>2995.698445127824</v>
       </c>
       <c r="Q11" t="n">
-        <v>3194.122369699649</v>
+        <v>3194.122369699629</v>
       </c>
       <c r="R11" t="n">
-        <v>3194.122369699649</v>
+        <v>3194.122369699629</v>
       </c>
       <c r="S11" t="n">
-        <v>3027.841531921467</v>
+        <v>3027.841531921446</v>
       </c>
       <c r="T11" t="n">
-        <v>2811.1080205697</v>
+        <v>3027.841531921446</v>
       </c>
       <c r="U11" t="n">
-        <v>2811.1080205697</v>
+        <v>3027.841531921446</v>
       </c>
       <c r="V11" t="n">
-        <v>2811.1080205697</v>
+        <v>3027.841531921446</v>
       </c>
       <c r="W11" t="n">
-        <v>2811.1080205697</v>
+        <v>3027.841531921446</v>
       </c>
       <c r="X11" t="n">
-        <v>2437.64226230862</v>
+        <v>2654.375773660367</v>
       </c>
       <c r="Y11" t="n">
-        <v>2095.921297362161</v>
+        <v>2264.236441684555</v>
       </c>
     </row>
     <row r="12">
@@ -5105,43 +5105,43 @@
         <v>664.5728831402778</v>
       </c>
       <c r="E12" t="n">
-        <v>505.3354281348222</v>
+        <v>505.3354281348223</v>
       </c>
       <c r="F12" t="n">
-        <v>358.8008701617072</v>
+        <v>358.8008701617073</v>
       </c>
       <c r="G12" t="n">
         <v>221.1231290014983</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9245703139051</v>
+        <v>117.924570313905</v>
       </c>
       <c r="I12" t="n">
-        <v>63.88244739399298</v>
+        <v>63.88244739399258</v>
       </c>
       <c r="J12" t="n">
-        <v>63.88244739399298</v>
+        <v>63.88244739399258</v>
       </c>
       <c r="K12" t="n">
-        <v>355.9060257624208</v>
+        <v>153.979319570509</v>
       </c>
       <c r="L12" t="n">
-        <v>809.9721611135028</v>
+        <v>608.045454921589</v>
       </c>
       <c r="M12" t="n">
-        <v>1391.825145792533</v>
+        <v>1189.898439600616</v>
       </c>
       <c r="N12" t="n">
-        <v>2004.785061005882</v>
+        <v>1802.858354813963</v>
       </c>
       <c r="O12" t="n">
-        <v>2411.314611418613</v>
+        <v>2297.181247543511</v>
       </c>
       <c r="P12" t="n">
-        <v>2475.771104479178</v>
+        <v>2676.915881557612</v>
       </c>
       <c r="Q12" t="n">
-        <v>2676.915881557611</v>
+        <v>2676.915881557612</v>
       </c>
       <c r="R12" t="n">
         <v>2641.129951867416</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>845.8604049244485</v>
+        <v>353.7663499532528</v>
       </c>
       <c r="C13" t="n">
-        <v>845.8604049244485</v>
+        <v>353.7663499532528</v>
       </c>
       <c r="D13" t="n">
-        <v>845.8604049244485</v>
+        <v>203.6497105409171</v>
       </c>
       <c r="E13" t="n">
-        <v>697.9473113420554</v>
+        <v>203.6497105409171</v>
       </c>
       <c r="F13" t="n">
-        <v>551.057363844145</v>
+        <v>203.6497105409171</v>
       </c>
       <c r="G13" t="n">
-        <v>382.2523763721309</v>
+        <v>63.88244739399258</v>
       </c>
       <c r="H13" t="n">
-        <v>226.236066607217</v>
+        <v>63.88244739399258</v>
       </c>
       <c r="I13" t="n">
-        <v>95.76570759835474</v>
+        <v>63.88244739399258</v>
       </c>
       <c r="J13" t="n">
-        <v>63.88244739399298</v>
+        <v>63.88244739399258</v>
       </c>
       <c r="K13" t="n">
-        <v>142.3679338555496</v>
+        <v>142.3679338555483</v>
       </c>
       <c r="L13" t="n">
-        <v>298.3287695220716</v>
+        <v>298.3287695220692</v>
       </c>
       <c r="M13" t="n">
-        <v>473.1567265041828</v>
+        <v>473.1567265041792</v>
       </c>
       <c r="N13" t="n">
-        <v>649.2622818508099</v>
+        <v>649.2622818508052</v>
       </c>
       <c r="O13" t="n">
-        <v>795.9079702090286</v>
+        <v>795.9079702090227</v>
       </c>
       <c r="P13" t="n">
-        <v>897.8680081961071</v>
+        <v>897.8680081961003</v>
       </c>
       <c r="Q13" t="n">
-        <v>884.7640036451706</v>
+        <v>897.8680081961003</v>
       </c>
       <c r="R13" t="n">
-        <v>845.8604049244485</v>
+        <v>897.8680081961003</v>
       </c>
       <c r="S13" t="n">
-        <v>845.8604049244485</v>
+        <v>897.8680081961003</v>
       </c>
       <c r="T13" t="n">
-        <v>845.8604049244485</v>
+        <v>897.8680081961003</v>
       </c>
       <c r="U13" t="n">
-        <v>845.8604049244485</v>
+        <v>897.8680081961003</v>
       </c>
       <c r="V13" t="n">
-        <v>845.8604049244485</v>
+        <v>643.1835199902134</v>
       </c>
       <c r="W13" t="n">
-        <v>845.8604049244485</v>
+        <v>353.7663499532528</v>
       </c>
       <c r="X13" t="n">
-        <v>845.8604049244485</v>
+        <v>353.7663499532528</v>
       </c>
       <c r="Y13" t="n">
-        <v>845.8604049244485</v>
+        <v>353.7663499532528</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1339.981567507181</v>
+        <v>1776.509221818346</v>
       </c>
       <c r="C14" t="n">
-        <v>1339.981567507181</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="D14" t="n">
-        <v>1339.981567507181</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E14" t="n">
-        <v>1339.981567507181</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F14" t="n">
-        <v>928.9956627175731</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G14" t="n">
-        <v>511.9078809540005</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H14" t="n">
-        <v>193.68476572651</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662049</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403563</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604008</v>
+        <v>666.0988071604027</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389909</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216838</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827853</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.574857095564</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U14" t="n">
-        <v>3074.883153840715</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="V14" t="n">
-        <v>2743.820266497144</v>
+        <v>3279.482807389474</v>
       </c>
       <c r="W14" t="n">
-        <v>2490.186497808194</v>
+        <v>2926.714152119359</v>
       </c>
       <c r="X14" t="n">
-        <v>2116.720739547114</v>
+        <v>2553.24839385828</v>
       </c>
       <c r="Y14" t="n">
-        <v>1726.581407571302</v>
+        <v>2163.109061882468</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662049</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J15" t="n">
-        <v>73.99179512662049</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K15" t="n">
-        <v>141.5996147899769</v>
+        <v>403.4201994324305</v>
       </c>
       <c r="L15" t="n">
-        <v>645.9611546560947</v>
+        <v>907.7817392985492</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.506504123198</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N15" t="n">
-        <v>1959.71219637598</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O15" t="n">
-        <v>2509.148205128702</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R15" t="n">
         <v>2635.224952969837</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1073.926476585963</v>
+        <v>267.3675792286677</v>
       </c>
       <c r="C16" t="n">
-        <v>984.1592261091479</v>
+        <v>267.3675792286677</v>
       </c>
       <c r="D16" t="n">
-        <v>834.0425866968121</v>
+        <v>267.3675792286677</v>
       </c>
       <c r="E16" t="n">
-        <v>686.129493114419</v>
+        <v>220.881742624531</v>
       </c>
       <c r="F16" t="n">
-        <v>539.2395456165086</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G16" t="n">
-        <v>370.6327006118921</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H16" t="n">
-        <v>216.3780575116571</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I16" t="n">
-        <v>91.86638288598331</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662049</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222299</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230478</v>
+        <v>359.872719623049</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422853</v>
+        <v>565.1423203422869</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783891</v>
+        <v>770.9656851783913</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669875</v>
+        <v>945.0605805669902</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585963</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="T16" t="n">
-        <v>1073.926476585963</v>
+        <v>1073.926476585966</v>
       </c>
       <c r="U16" t="n">
-        <v>1073.926476585963</v>
+        <v>784.7743001636456</v>
       </c>
       <c r="V16" t="n">
-        <v>1073.926476585963</v>
+        <v>784.7743001636456</v>
       </c>
       <c r="W16" t="n">
-        <v>1073.926476585963</v>
+        <v>495.357130126685</v>
       </c>
       <c r="X16" t="n">
-        <v>1073.926476585963</v>
+        <v>267.3675792286677</v>
       </c>
       <c r="Y16" t="n">
-        <v>1073.926476585963</v>
+        <v>267.3675792286677</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1942.924467505048</v>
+        <v>2239.019041677414</v>
       </c>
       <c r="C17" t="n">
-        <v>1573.961950564637</v>
+        <v>1870.056524737002</v>
       </c>
       <c r="D17" t="n">
-        <v>1215.696251957886</v>
+        <v>1511.790826130252</v>
       </c>
       <c r="E17" t="n">
-        <v>829.907999359642</v>
+        <v>1126.002573532008</v>
       </c>
       <c r="F17" t="n">
-        <v>418.9220945700344</v>
+        <v>715.0166687424</v>
       </c>
       <c r="G17" t="n">
-        <v>73.9917951266205</v>
+        <v>392.2149103541112</v>
       </c>
       <c r="H17" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403566</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604011</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389913</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216838</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U17" t="n">
-        <v>3445.898053076176</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="V17" t="n">
-        <v>3445.898053076176</v>
+        <v>3368.526868987462</v>
       </c>
       <c r="W17" t="n">
-        <v>3093.129397806062</v>
+        <v>3015.758213717348</v>
       </c>
       <c r="X17" t="n">
-        <v>2719.663639544982</v>
+        <v>3015.758213717348</v>
       </c>
       <c r="Y17" t="n">
-        <v>2329.52430756917</v>
+        <v>2625.618881741536</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>119.8966521363041</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I18" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J18" t="n">
-        <v>73.9917951266205</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K18" t="n">
-        <v>141.599614789977</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L18" t="n">
-        <v>645.9611546560948</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M18" t="n">
-        <v>1286.506504123199</v>
+        <v>1205.93832751005</v>
       </c>
       <c r="N18" t="n">
-        <v>1959.71219637598</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O18" t="n">
-        <v>2509.148205128702</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P18" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q18" t="n">
-        <v>2656.336852567651</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R18" t="n">
         <v>2635.224952969837</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222299</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230478</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422853</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783891</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669875</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165603</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q19" t="n">
-        <v>1073.926476585963</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585963</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585963</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T19" t="n">
-        <v>848.2972798983274</v>
+        <v>907.2456297917884</v>
       </c>
       <c r="U19" t="n">
-        <v>559.1451034760071</v>
+        <v>618.0934533694682</v>
       </c>
       <c r="V19" t="n">
-        <v>304.4606152701202</v>
+        <v>363.4089651635813</v>
       </c>
       <c r="W19" t="n">
-        <v>304.4606152701202</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="X19" t="n">
-        <v>294.7843742701506</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662066</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1865.553283416327</v>
+        <v>2452.998035652587</v>
       </c>
       <c r="C20" t="n">
-        <v>1496.590766475915</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="D20" t="n">
-        <v>1138.325067869165</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E20" t="n">
-        <v>752.5368152709202</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F20" t="n">
-        <v>341.5509104813127</v>
+        <v>928.9956627175729</v>
       </c>
       <c r="G20" t="n">
-        <v>73.9917951266205</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="H20" t="n">
-        <v>73.9917951266205</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403561</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K20" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L20" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389913</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556125</v>
+        <v>3454.413795556131</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331025</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="S20" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.37471882786</v>
       </c>
       <c r="T20" t="n">
-        <v>3699.589756331025</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.589756331025</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="V20" t="n">
-        <v>3368.526868987454</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="W20" t="n">
-        <v>3015.75821371734</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="X20" t="n">
-        <v>2642.29245545626</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="Y20" t="n">
-        <v>2252.153123480448</v>
+        <v>2839.597875716709</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>119.8966521363041</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835159</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893252</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L21" t="n">
-        <v>661.7232333657678</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.268582832872</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N21" t="n">
-        <v>1975.474275085654</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O21" t="n">
-        <v>2524.910283838376</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P21" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q21" t="n">
-        <v>2656.336852567651</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R21" t="n">
         <v>2635.224952969837</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3699.589756331025</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="C22" t="n">
-        <v>3530.653573403118</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="D22" t="n">
-        <v>3380.536933990782</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="E22" t="n">
-        <v>3232.623840408389</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="F22" t="n">
-        <v>3085.733892910479</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.127047905862</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="H22" t="n">
-        <v>2762.872404805627</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="I22" t="n">
-        <v>2699.655074871683</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J22" t="n">
-        <v>2699.655074871683</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="K22" t="n">
-        <v>2800.703004467292</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L22" t="n">
-        <v>2985.53599936811</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M22" t="n">
-        <v>3190.805600087348</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N22" t="n">
-        <v>3396.628964923451</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O22" t="n">
-        <v>3570.72386031205</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P22" t="n">
-        <v>3696.171436910665</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q22" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R22" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S22" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T22" t="n">
-        <v>3699.589756331025</v>
+        <v>907.2456297917884</v>
       </c>
       <c r="U22" t="n">
-        <v>3699.589756331025</v>
+        <v>618.0934533694681</v>
       </c>
       <c r="V22" t="n">
-        <v>3699.589756331025</v>
+        <v>363.4089651635812</v>
       </c>
       <c r="W22" t="n">
-        <v>3699.589756331025</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="X22" t="n">
-        <v>3699.589756331025</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="Y22" t="n">
-        <v>3699.589756331025</v>
+        <v>73.99179512662064</v>
       </c>
     </row>
     <row r="23">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011336</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265284</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483981</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.007103038344</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C25" t="n">
-        <v>675.007103038344</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D25" t="n">
-        <v>675.007103038344</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>675.007103038344</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>675.007103038344</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>675.007103038344</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>675.007103038344</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1427.741252113633</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1757.603879777666</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2037.143944996363</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6445,22 +6445,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6469,7 +6469,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>128.6681430463432</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>128.6681430463432</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>128.6681430463432</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>128.6681430463432</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4744.160657054477</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4520.375241843983</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4231.246603057541</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>3976.562114851654</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>3687.144944814693</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916676</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>310.3166078765829</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2736.186707734713</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>2982.951835641177</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1336.117678709276</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.700508672316</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6937,7 +6937,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6973,13 +6973,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>752.8533410811858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>498.168852875299</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>208.7516828383384</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>208.7516828383384</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="W40" t="n">
-        <v>727.647686332073</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="X40" t="n">
-        <v>499.6581354340557</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="41">
@@ -7408,10 +7408,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.373105721172</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.9054447954965</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>130.9054447954965</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>130.9054447954965</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>130.9054447954965</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>130.9054447954965</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>130.9054447954965</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.9054447954965</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>498.9056400965599</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>28.33919200008268</v>
+        <v>28.33919200008356</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>60.49886712176057</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>305.1821755223676</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>6.900745232382633</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928724</v>
+        <v>6.233205181928355</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311151</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>15.92129162593302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928724</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>15.92129162593302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>2.438569758332591</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>87.16935584025424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>87.16935584025299</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,13 +10676,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>73.53204524670059</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>87.16935584025424</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>283.6093329825497</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>87.16935584025435</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>126.4999478628062</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>319.5194584381685</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>135.3553342543436</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.47001067514515</v>
+        <v>27.47001067514624</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.5661762382495</v>
       </c>
       <c r="U11" t="n">
         <v>251.1897708139312</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>47.93418335905926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,25 +23421,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>28.74734708183865</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>154.4561466672649</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>129.1656554187739</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>31.56442760231869</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>12.97296450542775</v>
       </c>
       <c r="R13" t="n">
-        <v>99.47873272800612</v>
+        <v>137.9932954615214</v>
       </c>
       <c r="S13" t="n">
-        <v>208.7844338901267</v>
+        <v>208.7844338901268</v>
       </c>
       <c r="T13" t="n">
         <v>224.2110473578499</v>
@@ -23475,10 +23475,10 @@
         <v>286.2713543513364</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>279.1511292610975</v>
       </c>
       <c r="W14" t="n">
-        <v>98.14353771535241</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>78.37724312658135</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>100.4129844084738</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176897</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677915</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>71.43590749695704</v>
+        <v>93.34316314153079</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938906</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>123.2665578794171</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
-        <v>17.6958418817692</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677915</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>216.1301767990672</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>148.0333797447915</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>153.3055133132802</v>
       </c>
     </row>
     <row r="21">
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>60.6814012448118</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001187</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>145.6695415024086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>26.93116351641913</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.0596245741546</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24654,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>114.2845069527345</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338635</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="35">
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>77.0677756624134</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>26.93116351641913</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>144.6367173566217</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>77.06777566241341</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338571</v>
+        <v>170.0556615940287</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778357.5818955651</v>
+        <v>778357.5818955633</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>833847.5566931599</v>
+        <v>833847.5566931606</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>833847.5566931599</v>
+        <v>833847.5566931606</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>833847.5566931597</v>
+        <v>833847.5566931606</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>360224.5155594118</v>
+        <v>360224.5155594104</v>
       </c>
       <c r="F2" t="n">
-        <v>388396.0040473215</v>
+        <v>388396.004047322</v>
       </c>
       <c r="G2" t="n">
-        <v>388396.0040473215</v>
+        <v>388396.004047322</v>
       </c>
       <c r="H2" t="n">
-        <v>388396.0040473217</v>
+        <v>388396.004047322</v>
       </c>
       <c r="I2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="J2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="K2" t="n">
-        <v>449683.4186983654</v>
-      </c>
       <c r="L2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123022.0575261937</v>
+        <v>123022.0575261888</v>
       </c>
       <c r="F3" t="n">
-        <v>122192.1638359261</v>
+        <v>122192.163835933</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990993</v>
+        <v>255532.1595990976</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30961.93223513155</v>
+        <v>30961.93223513032</v>
       </c>
       <c r="N3" t="n">
-        <v>30950.6526513657</v>
+        <v>30950.65265136745</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>42822.33557352061</v>
+        <v>42822.33557352069</v>
       </c>
       <c r="F4" t="n">
-        <v>40808.29226915613</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="G4" t="n">
-        <v>40808.29226915613</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="H4" t="n">
-        <v>40808.29226915612</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773395</v>
@@ -26447,13 +26447,13 @@
         <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773395</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>59117.03032849841</v>
+        <v>59117.03032849802</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360135</v>
+        <v>69171.54328360152</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384076.6264631191</v>
+        <v>-384076.6264631189</v>
       </c>
       <c r="C6" t="n">
-        <v>205891.2527514256</v>
+        <v>205891.2527514255</v>
       </c>
       <c r="D6" t="n">
         <v>205891.2527514255</v>
       </c>
       <c r="E6" t="n">
-        <v>135263.092131199</v>
+        <v>130398.9833437007</v>
       </c>
       <c r="F6" t="n">
-        <v>156224.0046586379</v>
+        <v>152584.7431966905</v>
       </c>
       <c r="G6" t="n">
-        <v>278416.168494564</v>
+        <v>274776.9070326235</v>
       </c>
       <c r="H6" t="n">
-        <v>278416.168494564</v>
+        <v>274776.9070326235</v>
       </c>
       <c r="I6" t="n">
-        <v>65731.44963281545</v>
+        <v>64756.85837309538</v>
       </c>
       <c r="J6" t="n">
-        <v>144840.3900393217</v>
+        <v>143865.7987796001</v>
       </c>
       <c r="K6" t="n">
-        <v>321263.6092319149</v>
+        <v>320289.017972193</v>
       </c>
       <c r="L6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.0179721931</v>
       </c>
       <c r="M6" t="n">
-        <v>290301.6769967831</v>
+        <v>289327.0857370627</v>
       </c>
       <c r="N6" t="n">
-        <v>290312.956580549</v>
+        <v>289338.3653208256</v>
       </c>
       <c r="O6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.017972193</v>
       </c>
       <c r="P6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.017972193</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>484.6958857368694</v>
+        <v>484.6958857368651</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380634</v>
+        <v>593.4761003380652</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380634</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>798.5305924249122</v>
+        <v>798.5305924249072</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827561</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827581</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.9522215197827</v>
+        <v>106.9522215197784</v>
       </c>
       <c r="F3" t="n">
-        <v>108.780214601194</v>
+        <v>108.7802146012001</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160366</v>
+        <v>236.9063051160351</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>124.2433196703566</v>
+        <v>124.2433196703517</v>
       </c>
       <c r="F4" t="n">
-        <v>126.3668466578439</v>
+        <v>126.3668466578509</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708168</v>
+        <v>290.316204170815</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545555</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>124.2433196703566</v>
+        <v>124.2433196703517</v>
       </c>
       <c r="N4" t="n">
-        <v>126.3668466578438</v>
+        <v>126.3668466578509</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>124.2433196703566</v>
+        <v>124.2433196703517</v>
       </c>
       <c r="N4" t="n">
-        <v>126.3668466578439</v>
+        <v>126.3668466578509</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>288.7412138337945</v>
       </c>
       <c r="W2" t="n">
-        <v>333.4150374284281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>123.5101217588453</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>226.7886034666496</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.80735538553375</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>200.3937499721746</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>236.0793351214753</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>87.14873780830922</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>24.37936745074293</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>45.76029727605524</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.948526173816559</v>
+        <v>1.948526173816542</v>
       </c>
       <c r="H11" t="n">
-        <v>19.95534367759884</v>
+        <v>19.95534367759866</v>
       </c>
       <c r="I11" t="n">
-        <v>75.12055531606296</v>
+        <v>75.12055531606229</v>
       </c>
       <c r="J11" t="n">
-        <v>165.3787233449633</v>
+        <v>165.3787233449619</v>
       </c>
       <c r="K11" t="n">
-        <v>247.8598362826183</v>
+        <v>247.8598362826161</v>
       </c>
       <c r="L11" t="n">
-        <v>307.4920441745569</v>
+        <v>307.4920441745542</v>
       </c>
       <c r="M11" t="n">
-        <v>342.1441465181671</v>
+        <v>342.1441465181641</v>
       </c>
       <c r="N11" t="n">
-        <v>347.6803965095234</v>
+        <v>347.6803965095203</v>
       </c>
       <c r="O11" t="n">
-        <v>328.304739368635</v>
+        <v>328.3047393686321</v>
       </c>
       <c r="P11" t="n">
-        <v>280.2004994525387</v>
+        <v>280.2004994525362</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.4189058527331</v>
+        <v>210.4189058527312</v>
       </c>
       <c r="R11" t="n">
-        <v>122.3991072660045</v>
+        <v>122.3991072660034</v>
       </c>
       <c r="S11" t="n">
-        <v>44.40204018584488</v>
+        <v>44.40204018584448</v>
       </c>
       <c r="T11" t="n">
-        <v>8.529673325881991</v>
+        <v>8.529673325881914</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1558820939053247</v>
+        <v>0.1558820939053233</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.042553414603832</v>
+        <v>1.042553414603823</v>
       </c>
       <c r="H12" t="n">
-        <v>10.06887113577912</v>
+        <v>10.06887113577903</v>
       </c>
       <c r="I12" t="n">
-        <v>35.89493116070213</v>
+        <v>35.89493116070181</v>
       </c>
       <c r="J12" t="n">
-        <v>98.49843466658402</v>
+        <v>98.49843466658314</v>
       </c>
       <c r="K12" t="n">
-        <v>168.3495134450408</v>
+        <v>168.3495134450393</v>
       </c>
       <c r="L12" t="n">
-        <v>226.3666964472049</v>
+        <v>226.3666964472029</v>
       </c>
       <c r="M12" t="n">
-        <v>264.1592577265938</v>
+        <v>264.1592577265914</v>
       </c>
       <c r="N12" t="n">
-        <v>271.1507672482134</v>
+        <v>271.150767248211</v>
       </c>
       <c r="O12" t="n">
-        <v>248.0499784298864</v>
+        <v>248.0499784298842</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0819761623757</v>
+        <v>199.0819761623739</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.0810288536401</v>
+        <v>133.0810288536389</v>
       </c>
       <c r="R12" t="n">
-        <v>64.72976375935025</v>
+        <v>64.72976375934967</v>
       </c>
       <c r="S12" t="n">
-        <v>19.36497241599661</v>
+        <v>19.36497241599644</v>
       </c>
       <c r="T12" t="n">
-        <v>4.202221877284743</v>
+        <v>4.202221877284706</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06858904043446268</v>
+        <v>0.06858904043446207</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8740417611648463</v>
+        <v>0.8740417611648386</v>
       </c>
       <c r="H13" t="n">
-        <v>7.771025840174731</v>
+        <v>7.771025840174661</v>
       </c>
       <c r="I13" t="n">
-        <v>26.28481950848466</v>
+        <v>26.28481950848442</v>
       </c>
       <c r="J13" t="n">
-        <v>61.79475251435463</v>
+        <v>61.79475251435409</v>
       </c>
       <c r="K13" t="n">
-        <v>101.5477609789703</v>
+        <v>101.5477609789694</v>
       </c>
       <c r="L13" t="n">
-        <v>129.9461723826355</v>
+        <v>129.9461723826343</v>
       </c>
       <c r="M13" t="n">
-        <v>137.0100189796859</v>
+        <v>137.0100189796846</v>
       </c>
       <c r="N13" t="n">
-        <v>133.7522269607988</v>
+        <v>133.7522269607976</v>
       </c>
       <c r="O13" t="n">
-        <v>123.5418300235549</v>
+        <v>123.5418300235538</v>
       </c>
       <c r="P13" t="n">
-        <v>105.7113780957919</v>
+        <v>105.711378095791</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.18907874626727</v>
+        <v>73.18907874626663</v>
       </c>
       <c r="R13" t="n">
-        <v>39.30009591564845</v>
+        <v>39.30009591564809</v>
       </c>
       <c r="S13" t="n">
-        <v>15.23216414684554</v>
+        <v>15.23216414684541</v>
       </c>
       <c r="T13" t="n">
-        <v>3.734542070431615</v>
+        <v>3.734542070431582</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04767500515444622</v>
+        <v>0.0476750051544458</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198243</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055151</v>
+        <v>24.43391804055159</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651535</v>
+        <v>91.97984867651563</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>202.4946418937402</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779012</v>
+        <v>303.4869768779022</v>
       </c>
       <c r="L14" t="n">
-        <v>376.502430971252</v>
+        <v>376.5024309712532</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074812</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359658</v>
+        <v>425.7102483359671</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822507</v>
+        <v>401.986115782252</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426691</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457569</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810501</v>
+        <v>54.36718245810518</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916531</v>
+        <v>10.44398644916535</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.19086668553586</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>1.276533498840367</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>12.32862615985302</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182829</v>
+        <v>43.95082441182842</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512814</v>
+        <v>277.1701353512823</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842445</v>
+        <v>323.4444746842455</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900643</v>
+        <v>332.0050874900654</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947068</v>
+        <v>303.7197925947078</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671567</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>162.9483813607458</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080781</v>
+        <v>79.25705355080805</v>
       </c>
       <c r="S15" t="n">
-        <v>23.7110498578462</v>
+        <v>23.71104985784627</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308302</v>
+        <v>5.145325813308318</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.08398246702897152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H16" t="n">
-        <v>9.51507583820699</v>
+        <v>9.515075838207018</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784121</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490358</v>
+        <v>75.6633382349038</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790237</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889949</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676922</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441086</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714133</v>
+        <v>151.2683017714138</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>129.4361645720921</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104756</v>
+        <v>89.61489115104784</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937804</v>
+        <v>48.12020970937819</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522781</v>
+        <v>4.572684707522796</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.05837469839390811</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198243</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055151</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651535</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937396</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779012</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L17" t="n">
-        <v>376.502430971252</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074812</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359658</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822507</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426691</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457569</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411493</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810501</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916531</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840363</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985298</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182829</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J18" t="n">
-        <v>120.604421484738</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070423</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512814</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842445</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900643</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O18" t="n">
-        <v>303.7197925947068</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671567</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607453</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080781</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S18" t="n">
-        <v>23.7110498578462</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308302</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888311</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H19" t="n">
-        <v>9.51507583820699</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784121</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490358</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790237</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889949</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676922</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441086</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714133</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P19" t="n">
-        <v>129.4361645720917</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104756</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937804</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685356</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522781</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J20" t="n">
-        <v>202.4946418937396</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335966</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411493</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.276533498840363</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H21" t="n">
-        <v>12.32862615985298</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J21" t="n">
-        <v>120.604421484738</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1321659070423</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q21" t="n">
-        <v>162.9483813607453</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784621</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.070202803888311</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L22" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P22" t="n">
-        <v>129.4361645720917</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S22" t="n">
-        <v>18.65071613685356</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>153.4294339903508</v>
+        <v>153.4294339903493</v>
       </c>
       <c r="K11" t="n">
-        <v>351.9153978088025</v>
+        <v>351.9153978088003</v>
       </c>
       <c r="L11" t="n">
-        <v>489.3868437550201</v>
+        <v>489.3868437550174</v>
       </c>
       <c r="M11" t="n">
-        <v>561.3114467837269</v>
+        <v>561.3114467837238</v>
       </c>
       <c r="N11" t="n">
-        <v>555.6142573249167</v>
+        <v>555.6142573249135</v>
       </c>
       <c r="O11" t="n">
-        <v>479.0067092096937</v>
+        <v>479.0067092096907</v>
       </c>
       <c r="P11" t="n">
-        <v>370.7662118687518</v>
+        <v>370.7662118687493</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.4282066381883</v>
+        <v>200.4282066381864</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>294.9733114832604</v>
+        <v>91.00694159244084</v>
       </c>
       <c r="L12" t="n">
-        <v>458.6526619707899</v>
+        <v>458.6526619707879</v>
       </c>
       <c r="M12" t="n">
-        <v>587.7302875545754</v>
+        <v>587.730287554573</v>
       </c>
       <c r="N12" t="n">
-        <v>619.1514295084337</v>
+        <v>619.1514295084312</v>
       </c>
       <c r="O12" t="n">
-        <v>410.6359095078095</v>
+        <v>499.3160532621692</v>
       </c>
       <c r="P12" t="n">
-        <v>65.10756874804542</v>
+        <v>383.5703373879808</v>
       </c>
       <c r="Q12" t="n">
-        <v>203.1765425034677</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>79.27826915308746</v>
+        <v>79.27826915308655</v>
       </c>
       <c r="L13" t="n">
-        <v>157.5361976429516</v>
+        <v>157.5361976429504</v>
       </c>
       <c r="M13" t="n">
-        <v>176.5938959415265</v>
+        <v>176.5938959415252</v>
       </c>
       <c r="N13" t="n">
-        <v>177.8843993400274</v>
+        <v>177.8843993400262</v>
       </c>
       <c r="O13" t="n">
-        <v>148.1269579375946</v>
+        <v>148.1269579375934</v>
       </c>
       <c r="P13" t="n">
-        <v>102.9899373606854</v>
+        <v>102.9899373606845</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.545352539127</v>
+        <v>190.5453525391277</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040854</v>
+        <v>407.5425384040864</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517152</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M14" t="n">
-        <v>638.098798973041</v>
+        <v>638.0987989730423</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513591</v>
+        <v>633.6441091513603</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233093</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588822</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312121</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268327</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748664</v>
+        <v>509.4561008748673</v>
       </c>
       <c r="M15" t="n">
-        <v>647.015504512226</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502846</v>
+        <v>200.6633754067321</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>125.7087941787594</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472374</v>
+        <v>233.0438950105734</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>102.0686157531413</v>
       </c>
       <c r="L16" t="n">
-        <v>186.699994849311</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295328</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233372</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O16" t="n">
-        <v>175.853429685453</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369851</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353173</v>
+        <v>3.452847899353458</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.545352539127</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040854</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517152</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
-        <v>638.098798973041</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513591</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233093</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588822</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312121</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268327</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748664</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>647.015504512226</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N18" t="n">
-        <v>680.0057497502846</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269919</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>125.7087941787594</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472374</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>102.0686157531409</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L19" t="n">
-        <v>186.699994849311</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295328</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233372</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O19" t="n">
-        <v>175.853429685453</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369851</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353173</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584802</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K21" t="n">
-        <v>332.755963945262</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>141.05432532974</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122262</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N21" t="n">
-        <v>680.0057497502846</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269919</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7875025528265</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.9666072747238</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>102.0686157531409</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854531</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>424.0270691799203</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>294.2627707717789</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36922,13 +36922,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>237.7447944281922</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37396,13 +37396,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>280.6254601782252</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>294.2627707717789</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37870,16 +37870,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>490.7027479140744</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>237.7447944281936</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
